--- a/biology/Botanique/Jacaranda_copaia/Jacaranda_copaia.xlsx
+++ b/biology/Botanique/Jacaranda_copaia/Jacaranda_copaia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacaranda copaia est une espèce d'arbres de la famille des Bignoniaceae.
-Il est connu en Guyane sous les noms de Copaïa, Onguent pian de Cayenne[3], Faux simarouba, Coupaya, Coupaia, Bois pian (à Saül, nom partagé avec Gustavia augusta), Bois blanc (Créole), Pala'i, Mapili poà (Wayãpi), Pada (Palikur), Fii ati, Faya ati (Aluku), Caroba, Pará-pará, Marupa falso (Portugais)[4],[5], Yachimambo (Nenge tongo), Kupaya (Kali'na)[6].
-On le nomme aussi Flor azul, Palo azul, Pata de garza, Puti, Uai-cuima-yek, Wei-oima-yek (Arekuna) au Venezuela[7], Kuiship en Équateur (Capirona de la province de Napo)[8], Caroba au Brésil[9], Phootee au Guyana, Goebaja au Suriname[6].
+Il est connu en Guyane sous les noms de Copaïa, Onguent pian de Cayenne, Faux simarouba, Coupaya, Coupaia, Bois pian (à Saül, nom partagé avec Gustavia augusta), Bois blanc (Créole), Pala'i, Mapili poà (Wayãpi), Pada (Palikur), Fii ati, Faya ati (Aluku), Caroba, Pará-pará, Marupa falso (Portugais) Yachimambo (Nenge tongo), Kupaya (Kali'na).
+On le nomme aussi Flor azul, Palo azul, Pata de garza, Puti, Uai-cuima-yek, Wei-oima-yek (Arekuna) au Venezuela, Kuiship en Équateur (Capirona de la province de Napo), Caroba au Brésil, Phootee au Guyana, Goebaja au Suriname.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Jacaranda copaia est un arbre haut de 20 à 30 m à tronc droit, cylindrique, dépourvu de contreforts, à écorce brune, fissurée à liber orange. Les tiges et petits rameaux sont glabrescents, finement lenticellés, avec des poils simples et des écailles.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacaranda copaia est un arbre haut de 20 à 30 m à tronc droit, cylindrique, dépourvu de contreforts, à écorce brune, fissurée à liber orange. Les tiges et petits rameaux sont glabrescents, finement lenticellés, avec des poils simples et des écailles.
 Les feuilles sont opposées, composées bipennées, très grandes, surtout chez les arbres juvéniles.
 Le pétioles ultime est long de (0)2-5 mm.
 Le rachis non ailé porte 3-5 paires de pennes, portant chacune 3-24 folioles généralement opposées, mesurant 3-7 x (13)15-35 mm, de forme elliptique ou oblongue ou obovale obtuse ou aiguë-acuminée, à base en coin plus ou moins inéquilatérale, à apex aigu à obtus ou acuminé, luisantes, concolores, chartacées, ponctuées-lépidotes, glabres ou un peu pubescentes en dessous sur la côte, avec environ 5-7 paires de nervures latérales.
@@ -526,10 +540,8 @@
 Le disque est petit.
 L'ovaire est glabre.
 Les fruits sont des capsules ligneuses, glabres à lépidote-pubescents, presque lisses ou finement rugueuses, à base étroite, s'amenuisant sur 0,4-0,5 cm, à apex obtus à arrondi, de forme oblongue à obovale, applatie, mesurant 14,5-16,5 x 8-9 x 2-2,2 cm (parfois jusqu'à 10 × 5,5 cm), avec des valves ligneuses.
-Les graines sont de forme suborbiculaire, à aile interrompue au point d'attache, mesurant jusqu'à 25-30 x 40-45 x 0,5 mm[5],[10],[11],[12].
-Taxons infra-spécifiques
-Jacaranda copaia subsp. copaia porte des folioles sub-coriace, nettement pétiolulée, de forme elliptique ou oblongue-elliptique, obtuse. Ses fruits sont des capsules à valves ligneuses, larges de plus de 7 cm.
-Jacaranda copaia subsp. spectabilis (Mart. ex A. DC.) A.H. Gentry porte des folioles membraneuses, sessiles ou subsessiles, de forme rhomboïdes-elliptiques, aiguës à acuminées. Ses fruits sont des capsules à valves finement ligneuses, larges de moins de 6 cm[7].</t>
+Les graines sont de forme suborbiculaire, à aile interrompue au point d'attache, mesurant jusqu'à 25-30 x 40-45 x 0,5 mm.
+</t>
         </is>
       </c>
     </row>
@@ -554,14 +566,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Jacaranda copaia est présent au Colombie, Venezuela, Guyana, Suriname, Guyane, Équateur, Pérou, Amazonie brésilienne, et en Bolivie.
-Jacaranda copaia subsp. copaia est présent de l'Est du Venezuela (Delta Amacuro, Bolívar, Amazonas), Guyana, Suriname, Guyane, nord du Brésil adjacent.
-Jacaranda copaia subsp. spectabilis (Mart. ex A. DC.) A.H. Gentry est répandu partout au Venezuela[7].</t>
+          <t>Taxons infra-spécifiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Jacaranda copaia subsp. copaia porte des folioles sub-coriace, nettement pétiolulée, de forme elliptique ou oblongue-elliptique, obtuse. Ses fruits sont des capsules à valves ligneuses, larges de plus de 7 cm.
+Jacaranda copaia subsp. spectabilis (Mart. ex A. DC.) A.H. Gentry porte des folioles membraneuses, sessiles ou subsessiles, de forme rhomboïdes-elliptiques, aiguës à acuminées. Ses fruits sont des capsules à valves finement ligneuses, larges de moins de 6 cm.</t>
         </is>
       </c>
     </row>
@@ -586,31 +603,16 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Écologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Jacaranda copaia est un arbre moyen, à grand de la canopée, commun en forêt secondaire ou marécageuse, dans les clairières, particulièrement sur les basses crêtes des jeunes plaines côtières des Guyanes[10], parmi les plantes pionnières tardives, plus rare dans les forêts anciennes, sempervirentes, des plaines et des montagnes[4].
-Jacaranda copaia subsp. copaia pousse au Venezuela autour de 100–200 m d'altitude,
-Jacaranda copaia subsp. spectabilis (Mart. ex A. DC.) A.H. Gentry pousse au Venezuela autour de 100–900(–1 300) m d'altitude[7].
-En Guyane, Jacaranda copaia fleurit en janvier, août, septembre, octobre, novembre, et fructifie en juin, décembre. Il est disséminé mais très commun dans les forêts de terre ferme (non inondées), généralement dans les végétations perturbées, et est très visible du ciel lorsqu'elle est en fleurs[5].
-Jacaranda copaia a fait l'objet de diverses études sur :
-ses semences et sa germination dans le Mato Grosso (Brésil)[13],
-la biologie de sa pollinisation dans la Forêt nationale du Tapajós[14],[15],
-sa croissance dans d'anciennes cultures de manioc et bananes au Brésil[16],
-sa croissance en plantation au bout de 9 et 50 ans et sa production de bois utile à Manaus (Brésil)[17],
-la composition en tanins de son bois et son appétence par les termites de l'espèce Nasutitermes globiceps au Brésil[18],
-sa dendrochronologie en relation avec les précipitations, et son mode de croissance en tant qu'espèce pionnière en Guyane[19],
-son taux d'assimilation du CO2e et de sa conductance foliaire en Guyane[20],
-la combustion de son bois par gazéification[21],
-son histoire évolutive par datation moléculaire et sa biogéographie dans les Néotropiques depuis le Pléistocène[22],
-ses caractéristiques démo-génétiques en Guyane[23],[24],
-la structure génétique et spatiale de ses populations[25],
-la dispersion de ses graines par anémochorie et ses effets sur la génétique de ses populations à Barro Colorado (Panama)[26],
-la génétique de ses populations et du flux de gènes à Barro Colorado (Panama)[27],
-sa démographie et la phénologie de floraison[28],
-son polymorphisme nucléaire et plastidial au Brésil, en Bolivie, en Guyane et au Pérou[29].</t>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Jacaranda copaia est présent au Colombie, Venezuela, Guyana, Suriname, Guyane, Équateur, Pérou, Amazonie brésilienne, et en Bolivie.
+Jacaranda copaia subsp. copaia est présent de l'Est du Venezuela (Delta Amacuro, Bolívar, Amazonas), Guyana, Suriname, Guyane, nord du Brésil adjacent.
+Jacaranda copaia subsp. spectabilis (Mart. ex A. DC.) A.H. Gentry est répandu partout au Venezuela.</t>
         </is>
       </c>
     </row>
@@ -635,21 +637,33 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Utilisation</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bois de Jacaranda copaia est de couleur blanc jaunâtre, à gros grain, facile à travailler mais peu durable (densité : 0,05) est employé en menuiserie, pour fabriquer des jouets et du papier[9].
-Jacaranda copaia exhibe une magnifique floraison bleue[4].
-En Guyane, la tisane de l'écorce serait purgative et le suc des feuilles était appliqué sur les ulcères de leishmaniose (pian) chez les Kali'na et les « nègres » selon Aublet (1775)[30], chez les Créoles (onguent pian)[31], et chez les Aluku[32].
-Les feuilles sont utilisées en emplâtre contre la leishmaniose, par les Créoles de Saül[4].
-La fumée de rameaux feuillés de Jacaranda copaia « brûlés » en saison sèche servent à éloigner les « yinyins » chez les Wayãpi. D'après ces derniers, les jaguars empoisonneraient leurs griffes avec sa sève en lécérant son écorce[4].
-L'écorce des jeunes branches, réputée émétique et purgative, était très employée, en poudre comme antisyphilitique[3].
-La résine de Jacaranda copaia (baume de caroba) est considérée comme dépurative et succédané de la salsepareille comme antisyphilitique[9].
-Les Tiriyó du Nord du Pará utilisent Jacaranda copaia comme fébrifuge et fortifiant[33].
-Les Amérindiens du haut Uaupès (KubeoKubeo, Tukano, Uanano...) utilisent la tisane d'écorce pour soigner la grippe et la pneumonie[34].
-</t>
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Jacaranda copaia est un arbre moyen, à grand de la canopée, commun en forêt secondaire ou marécageuse, dans les clairières, particulièrement sur les basses crêtes des jeunes plaines côtières des Guyanes, parmi les plantes pionnières tardives, plus rare dans les forêts anciennes, sempervirentes, des plaines et des montagnes.
+Jacaranda copaia subsp. copaia pousse au Venezuela autour de 100–200 m d'altitude,
+Jacaranda copaia subsp. spectabilis (Mart. ex A. DC.) A.H. Gentry pousse au Venezuela autour de 100–900(–1 300) m d'altitude.
+En Guyane, Jacaranda copaia fleurit en janvier, août, septembre, octobre, novembre, et fructifie en juin, décembre. Il est disséminé mais très commun dans les forêts de terre ferme (non inondées), généralement dans les végétations perturbées, et est très visible du ciel lorsqu'elle est en fleurs.
+Jacaranda copaia a fait l'objet de diverses études sur :
+ses semences et sa germination dans le Mato Grosso (Brésil),
+la biologie de sa pollinisation dans la Forêt nationale du Tapajós
+sa croissance dans d'anciennes cultures de manioc et bananes au Brésil,
+sa croissance en plantation au bout de 9 et 50 ans et sa production de bois utile à Manaus (Brésil),
+la composition en tanins de son bois et son appétence par les termites de l'espèce Nasutitermes globiceps au Brésil,
+sa dendrochronologie en relation avec les précipitations, et son mode de croissance en tant qu'espèce pionnière en Guyane,
+son taux d'assimilation du CO2e et de sa conductance foliaire en Guyane,
+la combustion de son bois par gazéification,
+son histoire évolutive par datation moléculaire et sa biogéographie dans les Néotropiques depuis le Pléistocène,
+ses caractéristiques démo-génétiques en Guyane
+la structure génétique et spatiale de ses populations,
+la dispersion de ses graines par anémochorie et ses effets sur la génétique de ses populations à Barro Colorado (Panama),
+la génétique de ses populations et du flux de gènes à Barro Colorado (Panama),
+sa démographie et la phénologie de floraison,
+son polymorphisme nucléaire et plastidial au Brésil, en Bolivie, en Guyane et au Pérou.</t>
         </is>
       </c>
     </row>
@@ -674,17 +688,22 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Chimie</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le liber de Jacaranda copaia renferme 0,43 % d'une saponine stéroïdique[35].
-Jacaranda copaia contient de la jacaranone (benzoquinone) qui inhibe le développement des leishmanies, à une dose cependant toxique pour les macrophages[36].
-La jacaranone présente aussi une activité anticancéreuse.
-Les extraits de plantes du genre Jacaranda ont montré une forte toxicité cutanée associée à une activité modérée contre la leishmaniose.
-Le genre Jacaranda présenterait un potentiel pharmaceutique sous-estimé et mériterait des études plus approfondies[37].
-On a isolé dans l'extrait de feuilles de Jacaranda copaia des huiles et graisses, des triterpènes-stéroïdes, des catéchines, des saponines, des sucres réducteurs, des alcaloïdes, des quinones, des tanins et des constituants amers. Cet extrait a présenté des activités antibactériennes et une toxicité modérée sur Artemia salina[8].
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bois de Jacaranda copaia est de couleur blanc jaunâtre, à gros grain, facile à travailler mais peu durable (densité : 0,05) est employé en menuiserie, pour fabriquer des jouets et du papier.
+Jacaranda copaia exhibe une magnifique floraison bleue.
+En Guyane, la tisane de l'écorce serait purgative et le suc des feuilles était appliqué sur les ulcères de leishmaniose (pian) chez les Kali'na et les « nègres » selon Aublet (1775), chez les Créoles (onguent pian), et chez les Aluku.
+Les feuilles sont utilisées en emplâtre contre la leishmaniose, par les Créoles de Saül.
+La fumée de rameaux feuillés de Jacaranda copaia « brûlés » en saison sèche servent à éloigner les « yinyins » chez les Wayãpi. D'après ces derniers, les jaguars empoisonneraient leurs griffes avec sa sève en lécérant son écorce.
+L'écorce des jeunes branches, réputée émétique et purgative, était très employée, en poudre comme antisyphilitique.
+La résine de Jacaranda copaia (baume de caroba) est considérée comme dépurative et succédané de la salsepareille comme antisyphilitique.
+Les Tiriyó du Nord du Pará utilisent Jacaranda copaia comme fébrifuge et fortifiant.
+Les Amérindiens du haut Uaupès (KubeoKubeo, Tukano, Uanano...) utilisent la tisane d'écorce pour soigner la grippe et la pneumonie.
 </t>
         </is>
       </c>
@@ -710,16 +729,56 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Chimie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le liber de Jacaranda copaia renferme 0,43 % d'une saponine stéroïdique.
+Jacaranda copaia contient de la jacaranone (benzoquinone) qui inhibe le développement des leishmanies, à une dose cependant toxique pour les macrophages.
+La jacaranone présente aussi une activité anticancéreuse.
+Les extraits de plantes du genre Jacaranda ont montré une forte toxicité cutanée associée à une activité modérée contre la leishmaniose.
+Le genre Jacaranda présenterait un potentiel pharmaceutique sous-estimé et mériterait des études plus approfondies.
+On a isolé dans l'extrait de feuilles de Jacaranda copaia des huiles et graisses, des triterpènes-stéroïdes, des catéchines, des saponines, des sucres réducteurs, des alcaloïdes, des quinones, des tanins et des constituants amers. Cet extrait a présenté des activités antibactériennes et une toxicité modérée sur Artemia salina.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jacaranda_copaia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacaranda_copaia</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>En 1741, Pierre Barrère rapporte ceci :
 « IACARANDA arbor, polyphylla, maxime procera. Iacaranda braſilienſibus Marcg. Arbre de S. Jean. May. On n'a pas vû la fleur ni le fruit de cet arbre, qu'on a cru devoir rapporter ici ſous le nom qu'il eſt déſigné dans Marcgrave. »
-— Pierre Barrère, 1741[38].
+— Pierre Barrère, 1741.
 En 1775, le botaniste Aublet propose le protologue suivant pour Bignonia copaia Aubl., 1775 (synonyme d’Jacaranda copaia (Aubl.) D.Don, 1823) :
-« BIGNONIA (Copaïa) foliis bipinnatis ; foliolis fructu ſubrotundo, compreſſo. (TABULA 265.)Bignonia arbor amplo buxi folio, fructu ovato, latiori, depreſſo (faya). Barrer. Franc. Equinox. pag. 11[38].
+« BIGNONIA (Copaïa) foliis bipinnatis ; foliolis fructu ſubrotundo, compreſſo. (TABULA 265.)Bignonia arbor amplo buxi folio, fructu ovato, latiori, depreſſo (faya). Barrer. Franc. Equinox. pag. 11.
 Arbor trunco octoginta-pedali, ad ſummitatem ramoſo ; ramis erectis, ſparſis. Folia ampliſſima, oppoſita, bipinnata, foliolis ovatis, acutis, glabris, integerrimis, ſeſſilibus, alternis &amp; oppoſitis. Flores paniculati, terminales. Corolla cærulea. Stamina quatuor fertilia, unum ſterile longum ad apicem latum &amp; villoſum. Fructus ; capſula coriacea, ovata, compreſſa, rufeſcens, bivalvis, bilocularis, valvulis ab apice ad baſim ab utroque latere dehiſcentibus, deciduis, ſepto medio cooperto ab utraque parte feminibus planis, compreſſis, marginatis.
 Florebat in ſylvis.
 LA BIGNONE Copaia. (Tabula 265-262.)
@@ -736,7 +795,7 @@
 Cet arbre eſt très commun dans les forêts de l'Iſle de Caïenne, &amp; dans celle de la Guiane.
 II eſt en fleur dans le mois d'Août, &amp; en fruit dans le mois de Novembre. à meſure qu'il pouſſe de nouvelles feuilles, les anciennes tombent, &amp; laiſſent une forte impreſſion de leurs attaches.
 On a diminué beaucoup la feuille entière qu'on a représentée. La foliole ſéparée, la branche avec ſes fleurs ſont de grandeur naturelle. »
-— Fusée-Aublet, 1775[30].</t>
+— Fusée-Aublet, 1775.</t>
         </is>
       </c>
     </row>
